--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.540008666666668</v>
+        <v>4.573811</v>
       </c>
       <c r="H2">
-        <v>19.620026</v>
+        <v>13.721433</v>
       </c>
       <c r="I2">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="J2">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>112.2692549765934</v>
+        <v>9.271642409868665</v>
       </c>
       <c r="R2">
-        <v>1010.42329478934</v>
+        <v>83.44478168881801</v>
       </c>
       <c r="S2">
-        <v>0.01325333147312037</v>
+        <v>0.001094329598772298</v>
       </c>
       <c r="T2">
-        <v>0.01325333147312037</v>
+        <v>0.001094329598772298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.540008666666668</v>
+        <v>4.573811</v>
       </c>
       <c r="H3">
-        <v>19.620026</v>
+        <v>13.721433</v>
       </c>
       <c r="I3">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="J3">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>1677.147979397313</v>
+        <v>1172.927784620959</v>
       </c>
       <c r="R3">
-        <v>15094.33181457582</v>
+        <v>10556.35006158863</v>
       </c>
       <c r="S3">
-        <v>0.1979865111339773</v>
+        <v>0.1384403685119383</v>
       </c>
       <c r="T3">
-        <v>0.1979865111339773</v>
+        <v>0.1384403685119382</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.540008666666668</v>
+        <v>4.573811</v>
       </c>
       <c r="H4">
-        <v>19.620026</v>
+        <v>13.721433</v>
       </c>
       <c r="I4">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="J4">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>214.1551256733685</v>
+        <v>223.3861443491224</v>
       </c>
       <c r="R4">
-        <v>1927.396131060316</v>
+        <v>2010.475299142101</v>
       </c>
       <c r="S4">
-        <v>0.02528090943338534</v>
+        <v>0.02636620988064276</v>
       </c>
       <c r="T4">
-        <v>0.02528090943338534</v>
+        <v>0.02636620988064275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>44.024573</v>
       </c>
       <c r="I5">
-        <v>0.5307192311682535</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="J5">
-        <v>0.5307192311682536</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>251.9163843805634</v>
+        <v>29.74762899058422</v>
       </c>
       <c r="R5">
-        <v>2267.247459425071</v>
+        <v>267.728660915258</v>
       </c>
       <c r="S5">
-        <v>0.029738607835259</v>
+        <v>0.003511105094286561</v>
       </c>
       <c r="T5">
-        <v>0.029738607835259</v>
+        <v>0.003511105094286561</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>44.024573</v>
       </c>
       <c r="I6">
-        <v>0.5307192311682535</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="J6">
-        <v>0.5307192311682536</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
         <v>3763.283680193874</v>
@@ -818,10 +818,10 @@
         <v>33869.55312174487</v>
       </c>
       <c r="S6">
-        <v>0.4442538257815304</v>
+        <v>0.4441794169530783</v>
       </c>
       <c r="T6">
-        <v>0.4442538257815305</v>
+        <v>0.4441794169530783</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>44.024573</v>
       </c>
       <c r="I7">
-        <v>0.5307192311682535</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="J7">
-        <v>0.5307192311682536</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>480.5339179230131</v>
+        <v>716.7239470605202</v>
       </c>
       <c r="R7">
-        <v>4324.805261307119</v>
+        <v>6450.515523544682</v>
       </c>
       <c r="S7">
-        <v>0.05672679755146406</v>
+        <v>0.08459474543392652</v>
       </c>
       <c r="T7">
-        <v>0.05672679755146406</v>
+        <v>0.08459474543392648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.436020999999999</v>
+        <v>8.320867</v>
       </c>
       <c r="H8">
-        <v>19.308063</v>
+        <v>24.962601</v>
       </c>
       <c r="I8">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="J8">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>110.48414757713</v>
+        <v>16.86735708232733</v>
       </c>
       <c r="R8">
-        <v>994.3573281941701</v>
+        <v>151.806213740946</v>
       </c>
       <c r="S8">
-        <v>0.01304260040444854</v>
+        <v>0.001990849872359757</v>
       </c>
       <c r="T8">
-        <v>0.01304260040444854</v>
+        <v>0.001990849872359756</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.436020999999999</v>
+        <v>8.320867</v>
       </c>
       <c r="H9">
-        <v>19.308063</v>
+        <v>24.962601</v>
       </c>
       <c r="I9">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="J9">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>1650.480934455745</v>
+        <v>2133.838957586057</v>
       </c>
       <c r="R9">
-        <v>14854.32841010171</v>
+        <v>19204.55061827452</v>
       </c>
       <c r="S9">
-        <v>0.1948384793233727</v>
+        <v>0.2518564701993209</v>
       </c>
       <c r="T9">
-        <v>0.1948384793233727</v>
+        <v>0.2518564701993209</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.436020999999999</v>
+        <v>8.320867</v>
       </c>
       <c r="H10">
-        <v>19.308063</v>
+        <v>24.962601</v>
       </c>
       <c r="I10">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="J10">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>210.7500091118286</v>
+        <v>406.3933548569997</v>
       </c>
       <c r="R10">
-        <v>1896.750082006458</v>
+        <v>3657.540193712997</v>
       </c>
       <c r="S10">
-        <v>0.02487893706344213</v>
+        <v>0.04796650445567476</v>
       </c>
       <c r="T10">
-        <v>0.02487893706344213</v>
+        <v>0.04796650445567475</v>
       </c>
     </row>
   </sheetData>
